--- a/family_financial_score.xlsx
+++ b/family_financial_score.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,70 +446,45 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Income</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Monthly_Expenses</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Loan_Payments</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Credit_Card_Spending</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Savings</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Category</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Income</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Monthly_Expenses</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Loan_Payments</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Credit_Card_Spending</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Savings</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Savings_to_Income</t>
+          <t>Financial_Score</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Expenses_to_Income</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Loan_to_Income</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Credit_Card_Spending_Score</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Spending_Category_Balance</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Financial_Score</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Recommendation</t>
         </is>
@@ -518,58 +493,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FAM1</t>
+          <t>FAM201</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FAM1_MEM020</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+          <t>FAM201_MEM019</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>55000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>73.95</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Excellent: Reduce expenses to below 40% of income. Lower loan payments to less than 20% of income. Cut down on credit card spending. Balance discretionary spending better.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>FAM201</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FAM1_MEM019</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6000</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>60000</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Food</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>32</v>
-      </c>
-      <c r="E2" t="n">
-        <v>150000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3000</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="I2" t="n">
-        <v>60000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>40</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>98.66666666666667</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>70.90000000000001</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Good: Reduce your credit card spending to improve your score. Balance discretionary and non-discretionary spending categories.</t>
+      <c r="J3" t="n">
+        <v>75.75</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Excellent: Balance discretionary spending better.</t>
         </is>
       </c>
     </row>
